--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4536.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4536.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Nawaz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +869,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1072,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1212,7 +1275,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>02/10/2019</t>
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4634</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1520,7 +1582,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4638</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1580,7 +1641,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4641</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1620,7 +1681,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>09/01/2023</t>
@@ -1628,7 +1688,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1680,7 +1740,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1732,7 +1792,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1771,7 +1831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +1853,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1830,7 +1890,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1867,7 +1927,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1904,7 +1964,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1941,7 +2001,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1978,7 +2038,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2015,7 +2075,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2052,7 +2112,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2089,7 +2149,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2126,7 +2186,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2163,7 +2223,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2200,7 +2260,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2237,7 +2297,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2274,7 +2334,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2311,7 +2371,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2348,7 +2408,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2385,7 +2445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2422,7 +2482,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2459,7 +2519,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2496,7 +2556,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2533,7 +2593,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4634</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2570,7 +2630,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4638</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2607,7 +2667,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4641</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2644,7 +2704,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2681,7 +2741,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2718,7 +2778,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2744,6 +2804,537 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>1/53</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3944</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.98%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.88%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.33%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.96%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.97%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4634</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4641</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.11%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4536.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4536.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2897,9 +2898,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3002,15 +3000,433 @@
           <t>4178</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.88%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.33%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.96%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.97%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4634</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4641</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.11%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3944</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3018,27 +3434,14 @@
           <t>4200</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.88%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3048,29 +3451,12 @@
           <t>4201</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.33%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3078,29 +3464,12 @@
           <t>4204</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.96%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3108,15 +3477,14 @@
           <t>4376</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3126,27 +3494,14 @@
           <t>4460</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.25%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3158,13 +3513,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3174,13 +3522,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3188,27 +3529,14 @@
           <t>4592</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.97%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3220,13 +3548,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3234,15 +3555,14 @@
           <t>4638</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3252,29 +3572,12 @@
           <t>4641</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.11%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3284,13 +3587,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3298,27 +3594,14 @@
           <t>4688</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>7</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.65%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3330,13 +3613,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4536.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4536.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2898,6 +2897,9 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3000,6 +3002,10 @@
           <t>4178</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3105,6 +3111,9 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3147,6 +3156,10 @@
           <t>4586</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3159,6 +3172,10 @@
           <t>4590</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3201,6 +3218,10 @@
           <t>4634</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3216,6 +3237,9 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>YES</t>
@@ -3258,6 +3282,10 @@
           <t>4686</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3300,319 +3328,15 @@
           <t>4690</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3939</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3943</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3944</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3972</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4114</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4178</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4204</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4634</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4638</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4641</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4536.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4536.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -869,6 +868,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -1072,6 +1072,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -1275,6 +1276,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>02/10/2019</t>
@@ -1582,6 +1584,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -1681,6 +1684,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>09/01/2023</t>
@@ -2810,535 +2814,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3939</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6.69%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3943</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3944</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.30%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3972</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.57%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4114</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.98%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4178</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.88%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.33%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4204</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.96%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.25%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.97%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4634</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4638</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4641</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.11%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.65%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>